--- a/large_test_1/large_test_1.xlsx
+++ b/large_test_1/large_test_1.xlsx
@@ -253,13 +253,25 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -368,6 +380,13 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thick">
         <color rgb="FFa6a6a6"/>
       </left>
@@ -434,13 +453,6 @@
       <bottom style="thin">
         <color rgb="FFbfbfbf"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -597,154 +609,166 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="54">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="5" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="6" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="6" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="7" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="7" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="7" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="8" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="8" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="8" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="8" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="8" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="8" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="8" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="9" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="9" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="6" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="6" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="6" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="12" applyBorder="1" fontId="6" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="12" applyBorder="1" fontId="6" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="12" applyBorder="1" fontId="6" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="8" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="8" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="8" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="8" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="13" applyBorder="1" fontId="8" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="13" applyBorder="1" fontId="8" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="13" applyBorder="1" fontId="6" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="8" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="6" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="8" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="8" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="8" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="6" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="15" applyBorder="1" fontId="6" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="16" applyBorder="1" fontId="6" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="9" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="10" applyFont="1" fillId="8" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="6" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="6" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="6" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="6" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="6" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="6" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="7" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="4" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="4" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="12" applyBorder="1" fontId="4" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="12" applyBorder="1" fontId="4" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="12" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="6" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="6" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="6" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="13" applyBorder="1" fontId="6" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="13" applyBorder="1" fontId="4" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="6" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="4" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="6" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="6" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="6" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="4" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="15" applyBorder="1" fontId="4" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="16" applyBorder="1" fontId="4" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="8" applyFont="1" fillId="8" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1056,17 +1080,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="48" width="3.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="48" width="35.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="49" width="35.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="49" width="35.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="49" width="35.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="49" width="10.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="49" width="10.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="49" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="49" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="49" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="48" width="3.2907142857142855" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="3.2907142857142855" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="35.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="51" width="35.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="51" width="35.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="52" width="35.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="53" width="10.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="51" width="10.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="51" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="51" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="51" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="5" width="3.2907142857142855" customWidth="1" bestFit="1"/>
     <col min="12" max="12" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="13" max="13" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="14" max="14" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
@@ -1074,7 +1098,7 @@
     <col min="16" max="16" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="49.95000000000001">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="49.95000000000001" customFormat="1" s="1">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1090,13 +1114,13 @@
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
       <c r="K1" s="9"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="39" customFormat="1" s="2">
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="39" customFormat="1" s="1">
       <c r="A2" s="3"/>
       <c r="B2" s="10" t="s">
         <v>3</v>
@@ -1116,7 +1140,7 @@
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="13"/>
@@ -1134,27 +1158,27 @@
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="28.5" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="28.5" customFormat="1" s="1">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="14" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="14"/>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="15" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="14"/>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="19" t="s">
         <v>9</v>
       </c>
       <c r="K4" s="3"/>
@@ -1164,27 +1188,27 @@
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="23"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -1192,19 +1216,19 @@
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="27"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
@@ -1212,33 +1236,33 @@
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="29">
         <v>10</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="30">
         <v>15</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="29">
         <v>50</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="30">
         <v>10</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="30">
         <v>200</v>
       </c>
-      <c r="H7" s="29">
+      <c r="H7" s="31">
         <f>C7*D7+E7*F7+G7</f>
       </c>
-      <c r="I7" s="29">
+      <c r="I7" s="31">
         <v>800</v>
       </c>
-      <c r="J7" s="25">
+      <c r="J7" s="27">
         <f>I7-H7</f>
       </c>
       <c r="K7" s="3"/>
@@ -1248,21 +1272,21 @@
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A8" s="3"/>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="29">
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="31">
         <f>C8*D8+E8*F8+G8</f>
       </c>
-      <c r="I8" s="29"/>
-      <c r="J8" s="25">
+      <c r="I8" s="31"/>
+      <c r="J8" s="27">
         <f>I8-H8</f>
       </c>
       <c r="K8" s="3"/>
@@ -1272,21 +1296,21 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A9" s="3"/>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="29">
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="31">
         <f>C9*D9+E9*F9+G9</f>
       </c>
-      <c r="I9" s="29"/>
-      <c r="J9" s="25">
+      <c r="I9" s="31"/>
+      <c r="J9" s="27">
         <f>I9-H9</f>
       </c>
       <c r="K9" s="3"/>
@@ -1296,21 +1320,21 @@
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A10" s="3"/>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="29">
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="31">
         <f>C10*D10+E10*F10+G10</f>
       </c>
-      <c r="I10" s="29"/>
-      <c r="J10" s="25">
+      <c r="I10" s="31"/>
+      <c r="J10" s="27">
         <f>I10-H10</f>
       </c>
       <c r="K10" s="3"/>
@@ -1320,21 +1344,21 @@
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18" customFormat="1" s="1">
       <c r="A11" s="3"/>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="29">
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="31">
         <f>C11*D11+E11*F11+G11</f>
       </c>
-      <c r="I11" s="29"/>
-      <c r="J11" s="25">
+      <c r="I11" s="31"/>
+      <c r="J11" s="27">
         <f>I11-H11</f>
       </c>
       <c r="K11" s="3"/>
@@ -1344,21 +1368,21 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A12" s="3"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24">
+      <c r="B12" s="28"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26">
         <f>SUM(H7:H11)</f>
       </c>
-      <c r="I12" s="24">
+      <c r="I12" s="26">
         <f>SUM(I7:I11)</f>
       </c>
-      <c r="J12" s="25"/>
+      <c r="J12" s="27"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
@@ -1366,19 +1390,19 @@
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A13" s="3"/>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="27"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -1386,21 +1410,21 @@
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A14" s="3"/>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="29">
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="31">
         <f>C14*D14+E14*F14+G14</f>
       </c>
-      <c r="I14" s="29"/>
-      <c r="J14" s="25">
+      <c r="I14" s="31"/>
+      <c r="J14" s="27">
         <f>I14-H14</f>
       </c>
       <c r="K14" s="3"/>
@@ -1410,21 +1434,21 @@
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A15" s="3"/>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="29">
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="31">
         <f>C15*D15+E15*F15+G15</f>
       </c>
-      <c r="I15" s="29"/>
-      <c r="J15" s="25">
+      <c r="I15" s="31"/>
+      <c r="J15" s="27">
         <f>I15-H15</f>
       </c>
       <c r="K15" s="3"/>
@@ -1434,21 +1458,21 @@
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A16" s="3"/>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="29">
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="31">
         <f>C16*D16+E16*F16+G16</f>
       </c>
-      <c r="I16" s="29"/>
-      <c r="J16" s="25">
+      <c r="I16" s="31"/>
+      <c r="J16" s="27">
         <f>I16-H16</f>
       </c>
       <c r="K16" s="3"/>
@@ -1458,21 +1482,21 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A17" s="3"/>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="29">
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="31">
         <f>C17*D17+E17*F17+G17</f>
       </c>
-      <c r="I17" s="29"/>
-      <c r="J17" s="25">
+      <c r="I17" s="31"/>
+      <c r="J17" s="27">
         <f>I17-H17</f>
       </c>
       <c r="K17" s="3"/>
@@ -1482,21 +1506,21 @@
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18" customFormat="1" s="1">
       <c r="A18" s="3"/>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="29">
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="31">
         <f>C18*D18+E18*F18+G18</f>
       </c>
-      <c r="I18" s="29"/>
-      <c r="J18" s="25">
+      <c r="I18" s="31"/>
+      <c r="J18" s="27">
         <f>I18-H18</f>
       </c>
       <c r="K18" s="3"/>
@@ -1506,21 +1530,21 @@
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A19" s="3"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="30">
+      <c r="B19" s="28"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="32">
         <f>SUM(H14:H18)</f>
       </c>
-      <c r="I19" s="30">
+      <c r="I19" s="32">
         <f>SUM(I14:I18)</f>
       </c>
-      <c r="J19" s="25"/>
+      <c r="J19" s="27"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
@@ -1528,19 +1552,19 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A20" s="3"/>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="25"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="27"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
@@ -1548,21 +1572,21 @@
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A21" s="3"/>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="29">
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="31">
         <f>C21*D21+E21*F21+G21</f>
       </c>
-      <c r="I21" s="29"/>
-      <c r="J21" s="25">
+      <c r="I21" s="31"/>
+      <c r="J21" s="27">
         <f>I21-H21</f>
       </c>
       <c r="K21" s="3"/>
@@ -1572,21 +1596,21 @@
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A22" s="3"/>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="29">
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="31">
         <f>C22*D22+E22*F22+G22</f>
       </c>
-      <c r="I22" s="29"/>
-      <c r="J22" s="25">
+      <c r="I22" s="31"/>
+      <c r="J22" s="27">
         <f>I22-H22</f>
       </c>
       <c r="K22" s="3"/>
@@ -1596,21 +1620,21 @@
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A23" s="3"/>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="29">
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="31">
         <f>C23*D23+E23*F23+G23</f>
       </c>
-      <c r="I23" s="29"/>
-      <c r="J23" s="25">
+      <c r="I23" s="31"/>
+      <c r="J23" s="27">
         <f>I23-H23</f>
       </c>
       <c r="K23" s="3"/>
@@ -1620,21 +1644,21 @@
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A24" s="3"/>
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="29">
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="31">
         <f>C24*D24+E24*F24+G24</f>
       </c>
-      <c r="I24" s="29"/>
-      <c r="J24" s="25">
+      <c r="I24" s="31"/>
+      <c r="J24" s="27">
         <f>I24-H24</f>
       </c>
       <c r="K24" s="3"/>
@@ -1644,19 +1668,19 @@
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A25" s="3"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="29">
+      <c r="B25" s="28"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="31">
         <f>C25*D25+E25*F25+G25</f>
       </c>
-      <c r="I25" s="29"/>
-      <c r="J25" s="25">
+      <c r="I25" s="31"/>
+      <c r="J25" s="27">
         <f>I25-H25</f>
       </c>
       <c r="K25" s="3"/>
@@ -1666,23 +1690,23 @@
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A26" s="3"/>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="30">
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="32">
         <f>SUM(H22:H24)</f>
       </c>
-      <c r="I26" s="30">
+      <c r="I26" s="32">
         <f>SUM(I22:I24)</f>
       </c>
-      <c r="J26" s="25"/>
+      <c r="J26" s="27"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
@@ -1690,17 +1714,17 @@
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A27" s="3"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="25"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="27"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
@@ -1708,23 +1732,23 @@
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A28" s="3"/>
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32">
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34">
         <f>SUM(H7:H11)</f>
       </c>
-      <c r="I28" s="32">
+      <c r="I28" s="34">
         <f>SUM(I7:I11)</f>
       </c>
-      <c r="J28" s="33"/>
+      <c r="J28" s="35"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
@@ -1732,7 +1756,7 @@
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="10.949999999999998" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="10.949999999999998" customFormat="1" s="1">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="13"/>
@@ -1750,7 +1774,7 @@
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="34.95" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="34.95" customFormat="1" s="1">
       <c r="A30" s="3"/>
       <c r="B30" s="10" t="s">
         <v>18</v>
@@ -1770,7 +1794,7 @@
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A31" s="3"/>
       <c r="B31" s="9"/>
       <c r="C31" s="8"/>
@@ -1788,18 +1812,18 @@
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A32" s="3"/>
       <c r="B32" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="34" t="s">
+      <c r="C32" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="34" t="s">
+      <c r="D32" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="34" t="s">
+      <c r="E32" s="37" t="s">
         <v>9</v>
       </c>
       <c r="F32" s="8"/>
@@ -1814,18 +1838,18 @@
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A33" s="3"/>
-      <c r="B33" s="35" t="s">
+      <c r="B33" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="36">
+      <c r="C33" s="39">
         <f>C47</f>
       </c>
-      <c r="D33" s="36">
+      <c r="D33" s="39">
         <f>D47</f>
       </c>
-      <c r="E33" s="36">
+      <c r="E33" s="39">
         <f>C33-D33</f>
       </c>
       <c r="F33" s="8"/>
@@ -1840,18 +1864,18 @@
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A34" s="3"/>
-      <c r="B34" s="35" t="s">
+      <c r="B34" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="36">
+      <c r="C34" s="39">
         <f>SUM(C63,C68,C77,C83+C91,C99)</f>
       </c>
-      <c r="D34" s="36">
+      <c r="D34" s="39">
         <f>SUM(D63,D68,D77,D83+D91,D99)</f>
       </c>
-      <c r="E34" s="36">
+      <c r="E34" s="39">
         <f>C34-D34</f>
       </c>
       <c r="F34" s="8"/>
@@ -1866,7 +1890,7 @@
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="10.949999999999998" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="10.949999999999998" customFormat="1" s="1">
       <c r="A35" s="3"/>
       <c r="B35" s="9"/>
       <c r="C35" s="8"/>
@@ -1884,16 +1908,16 @@
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
-      <c r="C36" s="37" t="s">
+      <c r="C36" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="37" t="s">
+      <c r="D36" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="34" t="s">
+      <c r="E36" s="37" t="s">
         <v>9</v>
       </c>
       <c r="F36" s="8"/>
@@ -1908,14 +1932,14 @@
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A37" s="3"/>
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="33"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="35"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
@@ -1928,14 +1952,14 @@
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A38" s="3"/>
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="38"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="41"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
@@ -1948,18 +1972,18 @@
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A39" s="3"/>
-      <c r="B39" s="26" t="s">
+      <c r="B39" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="29">
+      <c r="C39" s="31">
         <v>6000</v>
       </c>
-      <c r="D39" s="29">
+      <c r="D39" s="31">
         <v>6000</v>
       </c>
-      <c r="E39" s="25">
+      <c r="E39" s="27">
         <f>D39-C39</f>
       </c>
       <c r="F39" s="8"/>
@@ -1974,18 +1998,18 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A40" s="3"/>
-      <c r="B40" s="26" t="s">
+      <c r="B40" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C40" s="29">
+      <c r="C40" s="31">
         <v>200</v>
       </c>
-      <c r="D40" s="29">
+      <c r="D40" s="31">
         <v>150</v>
       </c>
-      <c r="E40" s="25">
+      <c r="E40" s="27">
         <f>D40-C40</f>
       </c>
       <c r="F40" s="8"/>
@@ -2000,18 +2024,18 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A41" s="3"/>
-      <c r="B41" s="26" t="s">
+      <c r="B41" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C41" s="29">
+      <c r="C41" s="31">
         <v>100</v>
       </c>
-      <c r="D41" s="29">
+      <c r="D41" s="31">
         <v>100</v>
       </c>
-      <c r="E41" s="25">
+      <c r="E41" s="27">
         <f>D41-C41</f>
       </c>
       <c r="F41" s="8"/>
@@ -2026,18 +2050,18 @@
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A42" s="3"/>
-      <c r="B42" s="26" t="s">
+      <c r="B42" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="29">
+      <c r="C42" s="31">
         <v>55</v>
       </c>
-      <c r="D42" s="29">
+      <c r="D42" s="31">
         <v>20</v>
       </c>
-      <c r="E42" s="25">
+      <c r="E42" s="27">
         <f>D42-C42</f>
       </c>
       <c r="F42" s="8"/>
@@ -2052,18 +2076,18 @@
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A43" s="3"/>
-      <c r="B43" s="26" t="s">
+      <c r="B43" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C43" s="29">
+      <c r="C43" s="31">
         <v>500</v>
       </c>
-      <c r="D43" s="29">
+      <c r="D43" s="31">
         <v>500</v>
       </c>
-      <c r="E43" s="25">
+      <c r="E43" s="27">
         <f>D43-C43</f>
       </c>
       <c r="F43" s="8"/>
@@ -2078,18 +2102,18 @@
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A44" s="3"/>
-      <c r="B44" s="26" t="s">
+      <c r="B44" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="29">
+      <c r="C44" s="31">
         <v>300</v>
       </c>
-      <c r="D44" s="29">
+      <c r="D44" s="31">
         <v>200</v>
       </c>
-      <c r="E44" s="25">
+      <c r="E44" s="27">
         <f>D44-C44</f>
       </c>
       <c r="F44" s="8"/>
@@ -2104,18 +2128,18 @@
       <c r="O44" s="3"/>
       <c r="P44" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18" customFormat="1" s="1">
       <c r="A45" s="3"/>
-      <c r="B45" s="26" t="s">
+      <c r="B45" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C45" s="29">
+      <c r="C45" s="31">
         <v>115</v>
       </c>
-      <c r="D45" s="29">
+      <c r="D45" s="31">
         <v>50</v>
       </c>
-      <c r="E45" s="25">
+      <c r="E45" s="27">
         <f>D45-C45</f>
       </c>
       <c r="F45" s="8"/>
@@ -2130,12 +2154,12 @@
       <c r="O45" s="3"/>
       <c r="P45" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A46" s="3"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="25"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="27"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
@@ -2148,18 +2172,18 @@
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18" customFormat="1" s="1">
       <c r="A47" s="3"/>
-      <c r="B47" s="31" t="s">
+      <c r="B47" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="32">
+      <c r="C47" s="34">
         <f>SUM(C39:C45)</f>
       </c>
-      <c r="D47" s="32">
+      <c r="D47" s="34">
         <f>SUM(D39:D45)</f>
       </c>
-      <c r="E47" s="33"/>
+      <c r="E47" s="35"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
@@ -2172,7 +2196,7 @@
       <c r="O47" s="3"/>
       <c r="P47" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="10.949999999999998" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="13"/>
@@ -2190,14 +2214,14 @@
       <c r="O48" s="3"/>
       <c r="P48" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18" customFormat="1" s="1">
       <c r="A49" s="3"/>
-      <c r="B49" s="39" t="s">
+      <c r="B49" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="C49" s="40"/>
-      <c r="D49" s="40"/>
-      <c r="E49" s="41"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="44"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
@@ -2210,14 +2234,14 @@
       <c r="O49" s="3"/>
       <c r="P49" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A50" s="3"/>
-      <c r="B50" s="22" t="s">
+      <c r="B50" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="25"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="27"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
@@ -2230,18 +2254,18 @@
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A51" s="3"/>
-      <c r="B51" s="26" t="s">
+      <c r="B51" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C51" s="29">
+      <c r="C51" s="31">
         <v>2250</v>
       </c>
-      <c r="D51" s="29">
+      <c r="D51" s="31">
         <v>2250</v>
       </c>
-      <c r="E51" s="25">
+      <c r="E51" s="27">
         <f>D51-C51</f>
       </c>
       <c r="F51" s="8"/>
@@ -2256,16 +2280,16 @@
       <c r="O51" s="3"/>
       <c r="P51" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A52" s="3"/>
-      <c r="B52" s="26" t="s">
+      <c r="B52" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C52" s="29">
+      <c r="C52" s="31">
         <v>25</v>
       </c>
-      <c r="D52" s="29"/>
-      <c r="E52" s="25">
+      <c r="D52" s="31"/>
+      <c r="E52" s="27">
         <f>D52-C52</f>
       </c>
       <c r="F52" s="8"/>
@@ -2280,16 +2304,16 @@
       <c r="O52" s="3"/>
       <c r="P52" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A53" s="3"/>
-      <c r="B53" s="26" t="s">
+      <c r="B53" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C53" s="29">
+      <c r="C53" s="31">
         <v>40</v>
       </c>
-      <c r="D53" s="29"/>
-      <c r="E53" s="25">
+      <c r="D53" s="31"/>
+      <c r="E53" s="27">
         <f>D53-C53</f>
       </c>
       <c r="F53" s="8"/>
@@ -2304,16 +2328,16 @@
       <c r="O53" s="3"/>
       <c r="P53" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A54" s="3"/>
-      <c r="B54" s="26" t="s">
+      <c r="B54" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C54" s="29">
+      <c r="C54" s="31">
         <v>44</v>
       </c>
-      <c r="D54" s="29"/>
-      <c r="E54" s="25">
+      <c r="D54" s="31"/>
+      <c r="E54" s="27">
         <f>D54-C54</f>
       </c>
       <c r="F54" s="8"/>
@@ -2328,16 +2352,16 @@
       <c r="O54" s="3"/>
       <c r="P54" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A55" s="3"/>
-      <c r="B55" s="26" t="s">
+      <c r="B55" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C55" s="29">
+      <c r="C55" s="31">
         <v>20</v>
       </c>
-      <c r="D55" s="29"/>
-      <c r="E55" s="25">
+      <c r="D55" s="31"/>
+      <c r="E55" s="27">
         <f>D55-C55</f>
       </c>
       <c r="F55" s="8"/>
@@ -2352,16 +2376,16 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A56" s="3"/>
-      <c r="B56" s="26" t="s">
+      <c r="B56" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="C56" s="29">
+      <c r="C56" s="31">
         <v>15</v>
       </c>
-      <c r="D56" s="29"/>
-      <c r="E56" s="25">
+      <c r="D56" s="31"/>
+      <c r="E56" s="27">
         <f>D56-C56</f>
       </c>
       <c r="F56" s="8"/>
@@ -2376,14 +2400,14 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A57" s="3"/>
-      <c r="B57" s="26" t="s">
+      <c r="B57" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C57" s="29"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="25">
+      <c r="C57" s="31"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="27">
         <f>D57-C57</f>
       </c>
       <c r="F57" s="8"/>
@@ -2398,16 +2422,16 @@
       <c r="O57" s="3"/>
       <c r="P57" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A58" s="3"/>
-      <c r="B58" s="26" t="s">
+      <c r="B58" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C58" s="29">
+      <c r="C58" s="31">
         <v>29</v>
       </c>
-      <c r="D58" s="29"/>
-      <c r="E58" s="25">
+      <c r="D58" s="31"/>
+      <c r="E58" s="27">
         <f>D58-C58</f>
       </c>
       <c r="F58" s="8"/>
@@ -2422,14 +2446,14 @@
       <c r="O58" s="3"/>
       <c r="P58" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A59" s="3"/>
-      <c r="B59" s="26" t="s">
+      <c r="B59" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="25">
+      <c r="C59" s="31"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="27">
         <f>D59-C59</f>
       </c>
       <c r="F59" s="8"/>
@@ -2444,14 +2468,14 @@
       <c r="O59" s="3"/>
       <c r="P59" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A60" s="3"/>
-      <c r="B60" s="26" t="s">
+      <c r="B60" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C60" s="29"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="25">
+      <c r="C60" s="31"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="27">
         <f>D60-C60</f>
       </c>
       <c r="F60" s="8"/>
@@ -2466,14 +2490,14 @@
       <c r="O60" s="3"/>
       <c r="P60" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A61" s="3"/>
-      <c r="B61" s="26" t="s">
+      <c r="B61" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C61" s="29"/>
-      <c r="D61" s="29"/>
-      <c r="E61" s="25">
+      <c r="C61" s="31"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="27">
         <f>D61-C61</f>
       </c>
       <c r="F61" s="8"/>
@@ -2488,14 +2512,14 @@
       <c r="O61" s="3"/>
       <c r="P61" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A62" s="3"/>
-      <c r="B62" s="26" t="s">
+      <c r="B62" s="28" t="s">
         <v>44</v>
       </c>
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
-      <c r="E62" s="25"/>
+      <c r="E62" s="27"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c r="H62" s="8"/>
@@ -2508,16 +2532,16 @@
       <c r="O62" s="3"/>
       <c r="P62" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A63" s="3"/>
-      <c r="B63" s="26"/>
-      <c r="C63" s="30">
+      <c r="B63" s="28"/>
+      <c r="C63" s="32">
         <f>SUM(C51:C62)</f>
       </c>
-      <c r="D63" s="30">
+      <c r="D63" s="32">
         <f>SUM(D51:D62)</f>
       </c>
-      <c r="E63" s="25"/>
+      <c r="E63" s="27"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c r="H63" s="8"/>
@@ -2530,14 +2554,14 @@
       <c r="O63" s="3"/>
       <c r="P63" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A64" s="3"/>
-      <c r="B64" s="22" t="s">
+      <c r="B64" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C64" s="24"/>
-      <c r="D64" s="24"/>
-      <c r="E64" s="25"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="27"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c r="H64" s="8"/>
@@ -2550,14 +2574,14 @@
       <c r="O64" s="3"/>
       <c r="P64" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A65" s="3"/>
-      <c r="B65" s="26" t="s">
+      <c r="B65" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="C65" s="29"/>
-      <c r="D65" s="29"/>
-      <c r="E65" s="25">
+      <c r="C65" s="31"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="27">
         <f>D65-C65</f>
       </c>
       <c r="F65" s="8"/>
@@ -2572,14 +2596,14 @@
       <c r="O65" s="3"/>
       <c r="P65" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A66" s="3"/>
-      <c r="B66" s="26" t="s">
+      <c r="B66" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="C66" s="29"/>
-      <c r="D66" s="29"/>
-      <c r="E66" s="25">
+      <c r="C66" s="31"/>
+      <c r="D66" s="31"/>
+      <c r="E66" s="27">
         <f>D66-C66</f>
       </c>
       <c r="F66" s="8"/>
@@ -2594,14 +2618,14 @@
       <c r="O66" s="3"/>
       <c r="P66" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A67" s="3"/>
-      <c r="B67" s="26" t="s">
+      <c r="B67" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C67" s="29"/>
-      <c r="D67" s="29"/>
-      <c r="E67" s="25">
+      <c r="C67" s="31"/>
+      <c r="D67" s="31"/>
+      <c r="E67" s="27">
         <f>D67-C67</f>
       </c>
       <c r="F67" s="8"/>
@@ -2616,16 +2640,16 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.95" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="19.95" customFormat="1" s="1">
       <c r="A68" s="3"/>
-      <c r="B68" s="26"/>
-      <c r="C68" s="30">
+      <c r="B68" s="28"/>
+      <c r="C68" s="32">
         <f>SUM(C65:C67)</f>
       </c>
-      <c r="D68" s="30">
+      <c r="D68" s="32">
         <f>SUM(D65:D67)</f>
       </c>
-      <c r="E68" s="25"/>
+      <c r="E68" s="27"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c r="H68" s="8"/>
@@ -2638,14 +2662,14 @@
       <c r="O68" s="3"/>
       <c r="P68" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A69" s="3"/>
-      <c r="B69" s="22" t="s">
+      <c r="B69" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C69" s="24"/>
-      <c r="D69" s="24"/>
-      <c r="E69" s="25"/>
+      <c r="C69" s="26"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="27"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c r="H69" s="8"/>
@@ -2658,14 +2682,14 @@
       <c r="O69" s="3"/>
       <c r="P69" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A70" s="3"/>
-      <c r="B70" s="26" t="s">
+      <c r="B70" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="C70" s="29"/>
-      <c r="D70" s="29"/>
-      <c r="E70" s="25">
+      <c r="C70" s="31"/>
+      <c r="D70" s="31"/>
+      <c r="E70" s="27">
         <f>D70-C70</f>
       </c>
       <c r="F70" s="8"/>
@@ -2680,14 +2704,14 @@
       <c r="O70" s="3"/>
       <c r="P70" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A71" s="3"/>
-      <c r="B71" s="26" t="s">
+      <c r="B71" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="C71" s="29"/>
-      <c r="D71" s="29"/>
-      <c r="E71" s="25">
+      <c r="C71" s="31"/>
+      <c r="D71" s="31"/>
+      <c r="E71" s="27">
         <f>D71-C71</f>
       </c>
       <c r="F71" s="8"/>
@@ -2702,12 +2726,12 @@
       <c r="O71" s="3"/>
       <c r="P71" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A72" s="3"/>
-      <c r="B72" s="26"/>
-      <c r="C72" s="29"/>
-      <c r="D72" s="29"/>
-      <c r="E72" s="25">
+      <c r="B72" s="28"/>
+      <c r="C72" s="31"/>
+      <c r="D72" s="31"/>
+      <c r="E72" s="27">
         <f>D72-C72</f>
       </c>
       <c r="F72" s="8"/>
@@ -2722,14 +2746,14 @@
       <c r="O72" s="3"/>
       <c r="P72" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A73" s="3"/>
-      <c r="B73" s="26" t="s">
+      <c r="B73" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="C73" s="29"/>
-      <c r="D73" s="29"/>
-      <c r="E73" s="25">
+      <c r="C73" s="31"/>
+      <c r="D73" s="31"/>
+      <c r="E73" s="27">
         <f>D73-C73</f>
       </c>
       <c r="F73" s="8"/>
@@ -2744,14 +2768,14 @@
       <c r="O73" s="3"/>
       <c r="P73" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A74" s="3"/>
-      <c r="B74" s="26" t="s">
+      <c r="B74" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C74" s="29"/>
-      <c r="D74" s="29"/>
-      <c r="E74" s="25">
+      <c r="C74" s="31"/>
+      <c r="D74" s="31"/>
+      <c r="E74" s="27">
         <f>D74-C74</f>
       </c>
       <c r="F74" s="8"/>
@@ -2766,14 +2790,14 @@
       <c r="O74" s="3"/>
       <c r="P74" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A75" s="3"/>
-      <c r="B75" s="26" t="s">
+      <c r="B75" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="C75" s="29"/>
-      <c r="D75" s="29"/>
-      <c r="E75" s="25">
+      <c r="C75" s="31"/>
+      <c r="D75" s="31"/>
+      <c r="E75" s="27">
         <f>D75-C75</f>
       </c>
       <c r="F75" s="8"/>
@@ -2788,14 +2812,14 @@
       <c r="O75" s="3"/>
       <c r="P75" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A76" s="3"/>
-      <c r="B76" s="26" t="s">
+      <c r="B76" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="C76" s="29"/>
-      <c r="D76" s="29"/>
-      <c r="E76" s="25">
+      <c r="C76" s="31"/>
+      <c r="D76" s="31"/>
+      <c r="E76" s="27">
         <f>D76-C76</f>
       </c>
       <c r="F76" s="8"/>
@@ -2810,16 +2834,16 @@
       <c r="O76" s="3"/>
       <c r="P76" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A77" s="3"/>
-      <c r="B77" s="26"/>
-      <c r="C77" s="30">
+      <c r="B77" s="28"/>
+      <c r="C77" s="32">
         <f>SUM(C70:C76)</f>
       </c>
-      <c r="D77" s="30">
+      <c r="D77" s="32">
         <f>SUM(D70:D76)</f>
       </c>
-      <c r="E77" s="25"/>
+      <c r="E77" s="27"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c r="H77" s="8"/>
@@ -2832,14 +2856,14 @@
       <c r="O77" s="3"/>
       <c r="P77" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A78" s="3"/>
-      <c r="B78" s="22" t="s">
+      <c r="B78" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="C78" s="24"/>
-      <c r="D78" s="24"/>
-      <c r="E78" s="25"/>
+      <c r="C78" s="26"/>
+      <c r="D78" s="26"/>
+      <c r="E78" s="27"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c r="H78" s="8"/>
@@ -2852,14 +2876,14 @@
       <c r="O78" s="3"/>
       <c r="P78" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="27" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="27" customFormat="1" s="1">
       <c r="A79" s="3"/>
-      <c r="B79" s="26" t="s">
+      <c r="B79" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="C79" s="29"/>
-      <c r="D79" s="29"/>
-      <c r="E79" s="25">
+      <c r="C79" s="31"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="27">
         <f>D79-C79</f>
       </c>
       <c r="F79" s="8"/>
@@ -2874,14 +2898,14 @@
       <c r="O79" s="3"/>
       <c r="P79" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="22.05" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="22.05" customFormat="1" s="1">
       <c r="A80" s="3"/>
-      <c r="B80" s="26" t="s">
+      <c r="B80" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="C80" s="29"/>
-      <c r="D80" s="29"/>
-      <c r="E80" s="25">
+      <c r="C80" s="31"/>
+      <c r="D80" s="31"/>
+      <c r="E80" s="27">
         <f>D80-C80</f>
       </c>
       <c r="F80" s="8"/>
@@ -2896,14 +2920,14 @@
       <c r="O80" s="3"/>
       <c r="P80" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="24" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="24" customFormat="1" s="1">
       <c r="A81" s="3"/>
-      <c r="B81" s="26" t="s">
+      <c r="B81" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="C81" s="29"/>
-      <c r="D81" s="29"/>
-      <c r="E81" s="25">
+      <c r="C81" s="31"/>
+      <c r="D81" s="31"/>
+      <c r="E81" s="27">
         <f>D81-C81</f>
       </c>
       <c r="F81" s="8"/>
@@ -2918,14 +2942,14 @@
       <c r="O81" s="3"/>
       <c r="P81" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="16.95" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="16.95" customFormat="1" s="1">
       <c r="A82" s="3"/>
-      <c r="B82" s="26" t="s">
+      <c r="B82" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="C82" s="29"/>
-      <c r="D82" s="29"/>
-      <c r="E82" s="25">
+      <c r="C82" s="31"/>
+      <c r="D82" s="31"/>
+      <c r="E82" s="27">
         <f>D82-C82</f>
       </c>
       <c r="F82" s="8"/>
@@ -2940,14 +2964,14 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="21" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="21" customFormat="1" s="1">
       <c r="A83" s="3"/>
-      <c r="B83" s="26"/>
-      <c r="C83" s="30">
+      <c r="B83" s="28"/>
+      <c r="C83" s="32">
         <f>SUM(C79:C82)</f>
       </c>
-      <c r="D83" s="30"/>
-      <c r="E83" s="25"/>
+      <c r="D83" s="32"/>
+      <c r="E83" s="27"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c r="H83" s="8"/>
@@ -2960,14 +2984,14 @@
       <c r="O83" s="3"/>
       <c r="P83" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A84" s="3"/>
-      <c r="B84" s="22" t="s">
+      <c r="B84" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C84" s="24"/>
-      <c r="D84" s="24"/>
-      <c r="E84" s="25"/>
+      <c r="C84" s="26"/>
+      <c r="D84" s="26"/>
+      <c r="E84" s="27"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c r="H84" s="8"/>
@@ -2980,14 +3004,14 @@
       <c r="O84" s="3"/>
       <c r="P84" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A85" s="3"/>
-      <c r="B85" s="26" t="s">
+      <c r="B85" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="C85" s="29"/>
-      <c r="D85" s="29"/>
-      <c r="E85" s="25">
+      <c r="C85" s="31"/>
+      <c r="D85" s="31"/>
+      <c r="E85" s="27">
         <f>D85-C85</f>
       </c>
       <c r="F85" s="8"/>
@@ -3002,14 +3026,14 @@
       <c r="O85" s="3"/>
       <c r="P85" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A86" s="3"/>
-      <c r="B86" s="26" t="s">
+      <c r="B86" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="C86" s="29"/>
-      <c r="D86" s="29"/>
-      <c r="E86" s="25">
+      <c r="C86" s="31"/>
+      <c r="D86" s="31"/>
+      <c r="E86" s="27">
         <f>D86-C86</f>
       </c>
       <c r="F86" s="8"/>
@@ -3024,14 +3048,14 @@
       <c r="O86" s="3"/>
       <c r="P86" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A87" s="3"/>
-      <c r="B87" s="26" t="s">
+      <c r="B87" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="C87" s="29"/>
-      <c r="D87" s="29"/>
-      <c r="E87" s="25">
+      <c r="C87" s="31"/>
+      <c r="D87" s="31"/>
+      <c r="E87" s="27">
         <f>D87-C87</f>
       </c>
       <c r="F87" s="8"/>
@@ -3046,14 +3070,14 @@
       <c r="O87" s="3"/>
       <c r="P87" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A88" s="3"/>
-      <c r="B88" s="26" t="s">
+      <c r="B88" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="C88" s="29"/>
-      <c r="D88" s="29"/>
-      <c r="E88" s="25">
+      <c r="C88" s="31"/>
+      <c r="D88" s="31"/>
+      <c r="E88" s="27">
         <f>D88-C88</f>
       </c>
       <c r="F88" s="8"/>
@@ -3068,14 +3092,14 @@
       <c r="O88" s="3"/>
       <c r="P88" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A89" s="3"/>
-      <c r="B89" s="26" t="s">
+      <c r="B89" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C89" s="29"/>
-      <c r="D89" s="29"/>
-      <c r="E89" s="25">
+      <c r="C89" s="31"/>
+      <c r="D89" s="31"/>
+      <c r="E89" s="27">
         <f>D89-C89</f>
       </c>
       <c r="F89" s="8"/>
@@ -3090,14 +3114,14 @@
       <c r="O89" s="3"/>
       <c r="P89" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A90" s="3"/>
-      <c r="B90" s="26" t="s">
+      <c r="B90" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="C90" s="29"/>
-      <c r="D90" s="29"/>
-      <c r="E90" s="25">
+      <c r="C90" s="31"/>
+      <c r="D90" s="31"/>
+      <c r="E90" s="27">
         <f>D90-C90</f>
       </c>
       <c r="F90" s="8"/>
@@ -3112,16 +3136,16 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="22.95" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="22.95" customFormat="1" s="1">
       <c r="A91" s="3"/>
-      <c r="B91" s="26"/>
-      <c r="C91" s="30">
+      <c r="B91" s="28"/>
+      <c r="C91" s="32">
         <f>SUM(C85:C90)</f>
       </c>
-      <c r="D91" s="30">
+      <c r="D91" s="32">
         <f>SUM(D85:D90)</f>
       </c>
-      <c r="E91" s="25"/>
+      <c r="E91" s="27"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c r="H91" s="8"/>
@@ -3134,14 +3158,14 @@
       <c r="O91" s="3"/>
       <c r="P91" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A92" s="3"/>
-      <c r="B92" s="22" t="s">
+      <c r="B92" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="C92" s="24"/>
-      <c r="D92" s="24"/>
-      <c r="E92" s="25"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="26"/>
+      <c r="E92" s="27"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c r="H92" s="8"/>
@@ -3154,14 +3178,14 @@
       <c r="O92" s="3"/>
       <c r="P92" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="15" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="15" customFormat="1" s="1">
       <c r="A93" s="3"/>
-      <c r="B93" s="26" t="s">
+      <c r="B93" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="C93" s="29"/>
-      <c r="D93" s="29"/>
-      <c r="E93" s="25">
+      <c r="C93" s="31"/>
+      <c r="D93" s="31"/>
+      <c r="E93" s="27">
         <f>D93-C93</f>
       </c>
       <c r="F93" s="8"/>
@@ -3176,14 +3200,14 @@
       <c r="O93" s="3"/>
       <c r="P93" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A94" s="3"/>
-      <c r="B94" s="26" t="s">
+      <c r="B94" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="C94" s="29"/>
-      <c r="D94" s="29"/>
-      <c r="E94" s="25">
+      <c r="C94" s="31"/>
+      <c r="D94" s="31"/>
+      <c r="E94" s="27">
         <f>D94-C94</f>
       </c>
       <c r="F94" s="8"/>
@@ -3198,14 +3222,14 @@
       <c r="O94" s="3"/>
       <c r="P94" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A95" s="3"/>
-      <c r="B95" s="26" t="s">
+      <c r="B95" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="C95" s="29"/>
-      <c r="D95" s="29"/>
-      <c r="E95" s="25">
+      <c r="C95" s="31"/>
+      <c r="D95" s="31"/>
+      <c r="E95" s="27">
         <f>D95-C95</f>
       </c>
       <c r="F95" s="8"/>
@@ -3220,14 +3244,14 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A96" s="3"/>
-      <c r="B96" s="26" t="s">
+      <c r="B96" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="C96" s="29"/>
-      <c r="D96" s="29"/>
-      <c r="E96" s="25">
+      <c r="C96" s="31"/>
+      <c r="D96" s="31"/>
+      <c r="E96" s="27">
         <f>D96-C96</f>
       </c>
       <c r="F96" s="8"/>
@@ -3242,14 +3266,14 @@
       <c r="O96" s="3"/>
       <c r="P96" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A97" s="3"/>
-      <c r="B97" s="26" t="s">
+      <c r="B97" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="C97" s="29"/>
-      <c r="D97" s="29"/>
-      <c r="E97" s="25">
+      <c r="C97" s="31"/>
+      <c r="D97" s="31"/>
+      <c r="E97" s="27">
         <f>D97-C97</f>
       </c>
       <c r="F97" s="8"/>
@@ -3264,14 +3288,14 @@
       <c r="O97" s="3"/>
       <c r="P97" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A98" s="3"/>
-      <c r="B98" s="26" t="s">
+      <c r="B98" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="C98" s="29"/>
-      <c r="D98" s="29"/>
-      <c r="E98" s="25">
+      <c r="C98" s="31"/>
+      <c r="D98" s="31"/>
+      <c r="E98" s="27">
         <f>D98-C98</f>
       </c>
       <c r="F98" s="8"/>
@@ -3286,16 +3310,16 @@
       <c r="O98" s="3"/>
       <c r="P98" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A99" s="3"/>
-      <c r="B99" s="42"/>
-      <c r="C99" s="43">
+      <c r="B99" s="45"/>
+      <c r="C99" s="46">
         <f>SUM(C93:C98)</f>
       </c>
-      <c r="D99" s="43">
+      <c r="D99" s="46">
         <f>SUM(D93:D98)</f>
       </c>
-      <c r="E99" s="44"/>
+      <c r="E99" s="47"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c r="H99" s="8"/>
@@ -3308,18 +3332,18 @@
       <c r="O99" s="3"/>
       <c r="P99" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A100" s="3"/>
-      <c r="B100" s="31" t="s">
+      <c r="B100" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C100" s="32">
+      <c r="C100" s="34">
         <f>C99+C91+C83+C77+C68+C63</f>
       </c>
-      <c r="D100" s="33">
+      <c r="D100" s="35">
         <f>D99+D91+D83+D77+D68+D63</f>
       </c>
-      <c r="E100" s="45"/>
+      <c r="E100" s="48"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c r="H100" s="8"/>
@@ -3332,7 +3356,7 @@
       <c r="O100" s="3"/>
       <c r="P100" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="10.949999999999998" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="10.949999999999998" customFormat="1" s="1">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="13"/>
@@ -3350,27 +3374,27 @@
       <c r="O101" s="3"/>
       <c r="P101" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="49.95000000000001">
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="49.95000000000001" customFormat="1" s="1">
       <c r="A102" s="3"/>
-      <c r="B102" s="46" t="s">
+      <c r="B102" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="C102" s="47"/>
-      <c r="D102" s="47"/>
-      <c r="E102" s="47"/>
-      <c r="F102" s="47"/>
-      <c r="G102" s="47"/>
-      <c r="H102" s="47"/>
-      <c r="I102" s="47"/>
-      <c r="J102" s="47"/>
+      <c r="C102" s="50"/>
+      <c r="D102" s="50"/>
+      <c r="E102" s="50"/>
+      <c r="F102" s="50"/>
+      <c r="G102" s="50"/>
+      <c r="H102" s="50"/>
+      <c r="I102" s="50"/>
+      <c r="J102" s="50"/>
       <c r="K102" s="3"/>
-      <c r="L102" s="1"/>
-      <c r="M102" s="1"/>
-      <c r="N102" s="1"/>
-      <c r="O102" s="1"/>
-      <c r="P102" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="17.25">
+      <c r="L102" s="2"/>
+      <c r="M102" s="2"/>
+      <c r="N102" s="2"/>
+      <c r="O102" s="2"/>
+      <c r="P102" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="13"/>
@@ -3382,13 +3406,13 @@
       <c r="I103" s="13"/>
       <c r="J103" s="13"/>
       <c r="K103" s="3"/>
-      <c r="L103" s="1"/>
-      <c r="M103" s="1"/>
-      <c r="N103" s="1"/>
-      <c r="O103" s="1"/>
-      <c r="P103" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="17.25" customFormat="1" s="2">
+      <c r="L103" s="2"/>
+      <c r="M103" s="2"/>
+      <c r="N103" s="2"/>
+      <c r="O103" s="2"/>
+      <c r="P103" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="13"/>
@@ -3406,7 +3430,7 @@
       <c r="O104" s="3"/>
       <c r="P104" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="13"/>
@@ -3424,7 +3448,7 @@
       <c r="O105" s="3"/>
       <c r="P105" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="13"/>
@@ -3442,7 +3466,7 @@
       <c r="O106" s="3"/>
       <c r="P106" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="13"/>
@@ -3460,7 +3484,7 @@
       <c r="O107" s="3"/>
       <c r="P107" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="13"/>
@@ -3478,7 +3502,7 @@
       <c r="O108" s="3"/>
       <c r="P108" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="13"/>
@@ -3496,7 +3520,7 @@
       <c r="O109" s="3"/>
       <c r="P109" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="13"/>
@@ -3514,7 +3538,7 @@
       <c r="O110" s="3"/>
       <c r="P110" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="13"/>
@@ -3532,7 +3556,7 @@
       <c r="O111" s="3"/>
       <c r="P111" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="13"/>
@@ -3550,7 +3574,7 @@
       <c r="O112" s="3"/>
       <c r="P112" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="13"/>
@@ -3591,11 +3615,11 @@
     <col min="2" max="2" style="5" width="88.29071428571429" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25" customFormat="1" s="1">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25" customFormat="1" s="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>0</v>
